--- a/DATA_goal/Junction_Flooding_297.xlsx
+++ b/DATA_goal/Junction_Flooding_297.xlsx
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41729.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.79</v>
+        <v>1.98</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.35</v>
+        <v>1.34</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.06</v>
+        <v>0.41</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>41.98</v>
+        <v>4.2</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>33.94</v>
+        <v>3.39</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.58</v>
+        <v>1.56</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>49.79</v>
+        <v>4.98</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.97</v>
+        <v>2.4</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.03</v>
+        <v>1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>15.23</v>
+        <v>1.52</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.55</v>
+        <v>1.66</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>17.26</v>
+        <v>1.73</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.49</v>
+        <v>1.55</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>21.65</v>
+        <v>2.17</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.19</v>
+        <v>1.32</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.48</v>
+        <v>0.35</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>228.42</v>
+        <v>22.84</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>43.08</v>
+        <v>4.31</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.3</v>
+        <v>1.43</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>28.47</v>
+        <v>2.85</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.6</v>
+        <v>1.46</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.97</v>
+        <v>0.3</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>25.08</v>
+        <v>2.51</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.44</v>
+        <v>1.14</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.41</v>
+        <v>1.34</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>17.02</v>
+        <v>1.7</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>44.15</v>
+        <v>4.41</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.92</v>
+        <v>0.79</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.87</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41729.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.71</v>
+        <v>0.57</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.55</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.31</v>
+        <v>1.83</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>14.63</v>
+        <v>1.46</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>28.73</v>
+        <v>2.87</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>10.35</v>
+        <v>1.04</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.34</v>
+        <v>0.43</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.37</v>
+        <v>0.64</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.31</v>
+        <v>0.73</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.55</v>
+        <v>0.76</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.15</v>
+        <v>0.22</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.69</v>
+        <v>0.67</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.34</v>
+        <v>0.93</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>94.56</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>18.87</v>
+        <v>1.89</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.18</v>
+        <v>0.62</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.35</v>
+        <v>0.64</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>13.55</v>
+        <v>1.36</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.06</v>
+        <v>0.51</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.91</v>
+        <v>0.59</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.47</v>
+        <v>0.75</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>26.34</v>
+        <v>2.63</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.35</v>
+        <v>0.33</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.72</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41729.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.34</v>
+        <v>0.63</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.3</v>
+        <v>0.43</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z4" s="4" t="n">
         <v>0.98</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>20.94</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>68.20999999999999</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>13.94</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
       <c r="AA4" s="4" t="n">
-        <v>4.05</v>
+        <v>0.4</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.75</v>
+        <v>0.37</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.38</v>
+        <v>0.44</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>19.03</v>
+        <v>1.9</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.73</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41729.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.24</v>
+        <v>1.62</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.86</v>
+        <v>1.19</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>35.24</v>
+        <v>3.52</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>28.8</v>
+        <v>2.88</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.78</v>
+        <v>1.28</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>46.65</v>
+        <v>4.66</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.66</v>
+        <v>1.97</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.66</v>
+        <v>0.87</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.83</v>
+        <v>1.28</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.16</v>
+        <v>1.42</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.87</v>
+        <v>1.49</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.71</v>
+        <v>1.27</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.02</v>
+        <v>1.8</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.79</v>
+        <v>1.08</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>186.09</v>
+        <v>18.61</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>35.45</v>
+        <v>3.55</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.73</v>
+        <v>1.17</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>23.75</v>
+        <v>2.37</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.48</v>
+        <v>1.25</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.96</v>
+        <v>0.2</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.96</v>
+        <v>2.3</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.36</v>
+        <v>1.04</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.24</v>
+        <v>0.92</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.85</v>
+        <v>1.09</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.78</v>
+        <v>1.48</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>42.13</v>
+        <v>4.21</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.58</v>
+        <v>0.66</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41729.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>6.82</v>
+        <v>0.68</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>4.85</v>
+        <v>0.49</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>14.78</v>
+        <v>1.48</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>11.94</v>
+        <v>1.19</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>5.37</v>
+        <v>0.54</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>24.23</v>
+        <v>2.42</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>8.26</v>
+        <v>0.83</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>3.61</v>
+        <v>0.36</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>5.24</v>
+        <v>0.52</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>5.95</v>
+        <v>0.59</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>6.21</v>
+        <v>0.62</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>1.72</v>
+        <v>0.17</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>7.56</v>
+        <v>0.76</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>4.64</v>
+        <v>0.46</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>73.95999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>15.1</v>
+        <v>1.51</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>4.93</v>
+        <v>0.49</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>10.03</v>
+        <v>1</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>11.39</v>
+        <v>1.14</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>4.35</v>
+        <v>0.44</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>3.94</v>
+        <v>0.39</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>4.62</v>
+        <v>0.46</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>6.18</v>
+        <v>0.62</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>22.27</v>
+        <v>2.23</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>2.71</v>
+        <v>0.27</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>6.16</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41729.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2.16</v>
+        <v>0.22</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>6.85</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>5.42</v>
+        <v>0.54</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>12.62</v>
+        <v>1.26</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>3.84</v>
+        <v>0.38</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>1.65</v>
+        <v>0.17</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>2.31</v>
+        <v>0.23</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>2.86</v>
+        <v>0.29</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="R7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="W7" s="4" t="n">
         <v>0.47</v>
       </c>
-      <c r="S7" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>30.47</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>4.66</v>
-      </c>
       <c r="X7" s="4" t="n">
-        <v>2.4</v>
+        <v>0.24</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>5.76</v>
+        <v>0.58</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>2.02</v>
+        <v>0.2</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>2.19</v>
+        <v>0.22</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>2.85</v>
+        <v>0.29</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>11.63</v>
+        <v>1.16</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>1.22</v>
+        <v>0.12</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>2.87</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41729.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>12.68</v>
+        <v>1.27</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>9.34</v>
+        <v>0.93</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>27.56</v>
+        <v>2.76</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>22.57</v>
+        <v>2.26</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>35.2</v>
+        <v>3.52</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>15.36</v>
+        <v>1.54</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>6.79</v>
+        <v>0.68</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>10.07</v>
+        <v>1.01</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>11.07</v>
+        <v>1.11</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>11.66</v>
+        <v>1.17</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.19</v>
+        <v>0.32</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>14.08</v>
+        <v>1.41</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>143.72</v>
+        <v>14.37</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>27.61</v>
+        <v>2.76</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>9.16</v>
+        <v>0.92</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>18.54</v>
+        <v>1.85</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>9.77</v>
+        <v>0.98</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>17.41</v>
+        <v>1.74</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>8.09</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>7.19</v>
+        <v>0.72</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>11.6</v>
+        <v>1.16</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>31.61</v>
+        <v>3.16</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>5.15</v>
+        <v>0.52</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>11.45</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41729.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>16.24</v>
+        <v>1.62</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>12.03</v>
+        <v>1.2</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>35.3</v>
+        <v>3.53</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>28.99</v>
+        <v>2.9</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>12.78</v>
+        <v>1.28</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>48.5</v>
+        <v>4.85</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>19.66</v>
+        <v>1.97</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.76</v>
+        <v>0.88</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>12.99</v>
+        <v>1.3</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>14.18</v>
+        <v>1.42</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>14.95</v>
+        <v>1.5</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>12.71</v>
+        <v>1.27</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>18.1</v>
+        <v>1.81</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>10.67</v>
+        <v>1.07</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>186.1</v>
+        <v>18.61</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>35.52</v>
+        <v>3.55</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>11.73</v>
+        <v>1.17</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>23.92</v>
+        <v>2.39</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>12.56</v>
+        <v>1.26</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.82</v>
+        <v>0.18</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>23.8</v>
+        <v>2.38</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>10.36</v>
+        <v>1.04</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>9.17</v>
+        <v>0.92</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>10.78</v>
+        <v>1.08</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>14.87</v>
+        <v>1.49</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>44.04</v>
+        <v>4.4</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41729.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>21.33</v>
+        <v>2.13</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>15.88</v>
+        <v>1.59</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>46.38</v>
+        <v>4.64</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>38.17</v>
+        <v>3.82</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>16.79</v>
+        <v>1.68</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>64.47</v>
+        <v>6.45</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>25.83</v>
+        <v>2.58</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>11.54</v>
+        <v>1.15</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>17.14</v>
+        <v>1.71</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>18.62</v>
+        <v>1.86</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>19.66</v>
+        <v>1.97</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.36</v>
+        <v>0.54</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>16.69</v>
+        <v>1.67</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>23.82</v>
+        <v>2.38</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>13.96</v>
+        <v>1.4</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>246.77</v>
+        <v>24.68</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>46.67</v>
+        <v>4.67</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>15.41</v>
+        <v>1.54</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>31.49</v>
+        <v>3.15</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>16.53</v>
+        <v>1.65</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.33</v>
+        <v>0.23</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>31.51</v>
+        <v>3.15</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>13.61</v>
+        <v>1.36</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>12.01</v>
+        <v>1.2</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>14.12</v>
+        <v>1.41</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>19.55</v>
+        <v>1.95</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>58.53</v>
+        <v>5.85</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>8.73</v>
+        <v>0.87</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>19.26</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_297.xlsx
+++ b/DATA_goal/Junction_Flooding_297.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41729.34027777778</v>
+        <v>44978.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.98</v>
+        <v>1.07</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.34</v>
+        <v>0.73</v>
       </c>
       <c r="D2" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AG2" s="4" t="n">
         <v>0.41</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J2" s="4" t="n">
+      <c r="AH2" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>22.84</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AH2" s="4" t="n">
-        <v>1.79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41729.34722222222</v>
+        <v>44978.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.86</v>
+        <v>0.51</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.57</v>
+        <v>0.35</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.83</v>
+        <v>1.14</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.46</v>
+        <v>0.82</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.67</v>
+        <v>0.39</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.87</v>
+        <v>1.73</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.04</v>
+        <v>0.64</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.26</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.34</v>
       </c>
       <c r="L3" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="W3" s="4" t="n">
         <v>0.73</v>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.23</v>
-      </c>
       <c r="X3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.38</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.36</v>
+        <v>0.9</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.55</v>
+        <v>0.34</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.51</v>
+        <v>0.32</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.59</v>
+        <v>0.37</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.75</v>
+        <v>0.48</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.63</v>
+        <v>1.62</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.77</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41729.35416666666</v>
+        <v>44978.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.22</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.15</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.36</v>
+        <v>0.52</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.09</v>
+        <v>0.35</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.09</v>
+        <v>0.97</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.29</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.32</v>
+        <v>0.12</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.13</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.55</v>
+        <v>0.21</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.57</v>
+        <v>0.24</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.19</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.19</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="S4" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="T4" s="4" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="W4" s="4" t="n">
+      <c r="Z4" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF4" s="4" t="n">
         <v>0.91</v>
       </c>
-      <c r="X4" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AE4" s="4" t="n">
+      <c r="AG4" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="AF4" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>0.25</v>
-      </c>
       <c r="AH4" s="4" t="n">
-        <v>0.57</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41729.36111111111</v>
+        <v>44978.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.62</v>
+        <v>1.04</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.19</v>
+        <v>0.77</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.52</v>
+        <v>2.3</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.88</v>
+        <v>1.84</v>
       </c>
       <c r="G5" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I5" s="4" t="n">
         <v>1.28</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.97</v>
-      </c>
       <c r="J5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.28</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.42</v>
+        <v>0.92</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.49</v>
+        <v>0.99</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.41</v>
+        <v>0.25</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.27</v>
+        <v>0.83</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.8</v>
+        <v>1.16</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.08</v>
+        <v>0.72</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>18.61</v>
+        <v>11.85</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.55</v>
+        <v>2.3</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.37</v>
+        <v>1.52</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.25</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.04</v>
+        <v>0.67</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.92</v>
+        <v>0.61</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.09</v>
+        <v>0.71</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.48</v>
+        <v>0.97</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.21</v>
+        <v>2.57</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.42</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.47</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41729.36805555555</v>
+        <v>44978.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.68</v>
+        <v>19.59</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.49</v>
+        <v>14.64</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.48</v>
+        <v>42.84</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.19</v>
+        <v>34.91</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.54</v>
+        <v>15.37</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2.42</v>
+        <v>57.63</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.83</v>
+        <v>23.82</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.36</v>
+        <v>10.66</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.52</v>
+        <v>15.6</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.59</v>
+        <v>17.18</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.62</v>
+        <v>18.29</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.17</v>
+        <v>4.84</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.53</v>
+        <v>15.41</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.76</v>
+        <v>21.9</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.46</v>
+        <v>13.01</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.66</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>7.4</v>
+        <v>227.3</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.51</v>
+        <v>43.06</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.49</v>
+        <v>14.23</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1</v>
+        <v>28.93</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.52</v>
+        <v>15.2</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.09</v>
+        <v>2.16</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.14</v>
+        <v>28.7</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.44</v>
+        <v>12.57</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.39</v>
+        <v>11.15</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.46</v>
+        <v>13.1</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.62</v>
+        <v>18.07</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>2.23</v>
+        <v>52.35</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.27</v>
+        <v>7.99</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41729.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41729.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41729.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>18.61</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41729.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>24.68</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.93</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41729.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>22.35</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>18.31</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>35</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>115.15</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>22.63</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>15.22</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>9.41</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>31.96</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>17.79</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_297.xlsx
+++ b/DATA_goal/Junction_Flooding_297.xlsx
@@ -457,17 +457,17 @@
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -655,103 +655,103 @@
         <v>44978.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.33</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.36</v>
+        <v>23.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.71</v>
+        <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.18</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.42</v>
+        <v>24.23</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.35</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.25</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.32</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.19</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.96</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.65</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>12.42</v>
+        <v>124.22</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.38</v>
+        <v>23.83</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.98</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.5</v>
+        <v>14.96</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.8</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.6</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.99</v>
+        <v>9.94</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.16</v>
+        <v>21.63</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44978.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.54</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="E3" s="4" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>17.33</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>55.64</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>1.14</v>
       </c>
-      <c r="F3" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.11</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>1.62</v>
+        <v>16.19</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.9</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44978.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.69</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.67</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.88</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.3</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.35</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.88</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>2.13</v>
+        <v>21.31</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.42</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.7</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.8</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.18</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.08</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44978.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.44</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.3</v>
+        <v>22.97</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.84</v>
+        <v>18.36</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.16</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.87</v>
+        <v>28.69</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.77</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.52</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.27</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.61</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.15</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>11.85</v>
+        <v>118.53</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.3</v>
+        <v>22.97</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.63</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.52</v>
+        <v>15.23</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.45</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.07</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.11</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.57</v>
+        <v>25.74</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.2</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_297.xlsx
+++ b/DATA_goal/Junction_Flooding_297.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,38 +443,38 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -655,13 +655,13 @@
         <v>44978.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.73</v>
+        <v>10.726</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.33</v>
+        <v>7.333</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.4</v>
+        <v>3.404</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>23.56</v>
@@ -670,88 +670,88 @@
         <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.18</v>
+        <v>8.176</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>24.23</v>
+        <v>24.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.35</v>
+        <v>13.347</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.25</v>
+        <v>5.245</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.32</v>
+        <v>7.323</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.31</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.19</v>
+        <v>10.191</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.65</v>
+        <v>8.647</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.96</v>
+        <v>7.955</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.65</v>
+        <v>2.648</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.09</v>
+        <v>1.093</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>124.22</v>
+        <v>124.223</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>23.83</v>
+        <v>23.834</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.98</v>
+        <v>7.982</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.96</v>
+        <v>14.964</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>8.048999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>13.6</v>
+        <v>13.597</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.63</v>
+        <v>6.629</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.56</v>
+        <v>7.562</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.94</v>
+        <v>9.942</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.68</v>
+        <v>2.682</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>21.63</v>
+        <v>21.628</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.08</v>
+        <v>4.075</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.98</v>
+        <v>9.978</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44978.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.07</v>
+        <v>5.067</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.54</v>
+        <v>3.536</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.38</v>
+        <v>1.379</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>11.41</v>
+        <v>11.408</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>8.201000000000001</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.87</v>
+        <v>3.866</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.33</v>
+        <v>17.332</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.37</v>
+        <v>6.368</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>2.63</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.37</v>
+        <v>3.368</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.54</v>
+        <v>4.539</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.02</v>
+        <v>5.023</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.11</v>
+        <v>1.112</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.14</v>
+        <v>4.136</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.62</v>
+        <v>5.616</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.96</v>
+        <v>3.964</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.24</v>
+        <v>1.242</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0.44</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>55.64</v>
+        <v>55.641</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>11.71</v>
+        <v>11.707</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.82</v>
+        <v>3.817</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.34</v>
+        <v>7.341</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.84</v>
+        <v>3.844</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.95</v>
+        <v>0.952</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>8.952999999999999</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.37</v>
+        <v>3.372</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.24</v>
+        <v>3.236</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.73</v>
+        <v>3.735</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.79</v>
+        <v>4.792</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.136</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>16.19</v>
+        <v>16.192</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.9</v>
+        <v>1.899</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.77</v>
+        <v>4.774</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44978.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.24</v>
+        <v>2.238</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.53</v>
+        <v>1.532</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.829</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>5.19</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.45</v>
+        <v>3.454</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.69</v>
+        <v>1.687</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>9.67</v>
+        <v>9.672000000000001</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.88</v>
+        <v>2.879</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.2</v>
+        <v>1.202</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.3</v>
+        <v>1.304</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.07</v>
+        <v>2.066</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>2.35</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.447</v>
       </c>
       <c r="O4" s="4" t="n">
         <v>1.88</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.51</v>
+        <v>2.509</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.94</v>
+        <v>1.944</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.82</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.232</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>21.31</v>
+        <v>21.313</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.42</v>
+        <v>5.423</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.74</v>
+        <v>1.735</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.3</v>
+        <v>3.303</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.7</v>
+        <v>1.705</v>
       </c>
       <c r="Y4" s="4" t="n">
         <v>0.5</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.8</v>
+        <v>4.801</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.53</v>
+        <v>1.533</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.54</v>
+        <v>1.543</v>
       </c>
       <c r="AC4" s="4" t="n">
         <v>1.77</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.18</v>
+        <v>2.177</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.722</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>9.08</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.794</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.17</v>
+        <v>2.172</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>9.539999999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44978.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>19.59</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>42.84</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>34.91</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>15.37</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>57.63</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>23.82</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>17.18</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>227.3</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>43.06</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>14.23</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>28.93</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>18.07</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>52.35</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>17.79</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_297.xlsx
+++ b/DATA_goal/Junction_Flooding_297.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,16 +967,16 @@
         <v>44978.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.44</v>
+        <v>10.438</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.74</v>
+        <v>7.744</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.898</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>22.97</v>
+        <v>22.973</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>18.36</v>
@@ -985,85 +985,189 @@
         <v>8.16</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>28.69</v>
+        <v>28.691</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>12.77</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.64</v>
+        <v>5.639</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.09</v>
+        <v>8.087999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>9.209</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>9.875</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.52</v>
+        <v>2.521</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.27</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.61</v>
+        <v>11.607</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.15</v>
+        <v>7.152</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.42</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>118.53</v>
+        <v>118.531</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>22.97</v>
+        <v>22.966</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.63</v>
+        <v>7.635</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>15.23</v>
+        <v>15.228</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>8.050000000000001</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.27</v>
+        <v>1.268</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>14.45</v>
+        <v>14.455</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.74</v>
+        <v>6.744</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.07</v>
+        <v>6.066</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>7.11</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.69</v>
+        <v>9.685</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.529</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>25.74</v>
+        <v>25.742</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.2</v>
+        <v>4.203</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>9.544</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44978.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>42.84</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>57.63</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>23.82</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>227.3</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>43.06</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>28.93</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>18.07</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>52.35</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>17.79</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_297.xlsx
+++ b/DATA_goal/Junction_Flooding_297.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,16 +967,16 @@
         <v>44978.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.438</v>
+        <v>10.44</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.744</v>
+        <v>7.74</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.898</v>
+        <v>0.9</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>22.973</v>
+        <v>22.97</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>18.36</v>
@@ -985,189 +985,85 @@
         <v>8.16</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>28.691</v>
+        <v>28.69</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>12.77</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.639</v>
+        <v>5.64</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.087999999999999</v>
+        <v>8.09</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.209</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.875</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.521</v>
+        <v>2.52</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.271000000000001</v>
+        <v>8.27</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.607</v>
+        <v>11.61</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.152</v>
+        <v>7.15</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.42</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>118.531</v>
+        <v>118.53</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>22.966</v>
+        <v>22.97</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.635</v>
+        <v>7.63</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>15.228</v>
+        <v>15.23</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>8.050000000000001</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.268</v>
+        <v>1.27</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>14.455</v>
+        <v>14.45</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.744</v>
+        <v>6.74</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.066</v>
+        <v>6.07</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>7.11</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.685</v>
+        <v>9.69</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.529</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>25.742</v>
+        <v>25.74</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.203</v>
+        <v>4.2</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.544</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44978.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>19.59</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>42.84</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>34.91</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>15.37</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>57.63</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>23.82</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>17.18</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>227.3</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>43.06</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>14.23</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>28.93</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>18.07</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>52.35</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>17.79</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
   </sheetData>
